--- a/vocabulary-list.xlsx
+++ b/vocabulary-list.xlsx
@@ -1,40 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\python\Project-Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uzivatel\PycharmProjects\pythonProject3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D82C53-4397-4D2F-95B8-FAF4898E4069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E8F921-97B9-4E3D-8048-5BFF192F1151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5430" yWindow="3050" windowWidth="19200" windowHeight="9890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>hello</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ZH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -47,36 +52,122 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>你好, 您好, nihao, ni hao</t>
+  </si>
+  <si>
+    <t>树, shù, shu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer </t>
+  </si>
+  <si>
+    <t>Adventure</t>
+  </si>
+  <si>
+    <t>冒险, màoxiǎn, maoxian</t>
+  </si>
+  <si>
+    <t>电脑, diànnǎo, diannao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Challenge </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 挑战, tiaozhan, tiǎozhàn</t>
+  </si>
+  <si>
+    <t>Friendship</t>
+  </si>
+  <si>
+    <t>友谊, youyi, yǒuyì</t>
+  </si>
+  <si>
+    <t>Opportunity</t>
+  </si>
+  <si>
+    <t>机会, jihui, jīhuì</t>
+  </si>
+  <si>
+    <t>Decision</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 决定, jieding, juédìng</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 环境, huánjìng, huanjing</t>
+  </si>
+  <si>
+    <t>Knowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 知识, zhishi, zhīshì</t>
+  </si>
+  <si>
+    <t>Innovation</t>
+  </si>
+  <si>
+    <t>创新, chuangxin, chuàngxīn</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>教育, jiaoyu, jiàoyù</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>成功, chenggong, chénggōng</t>
+  </si>
+  <si>
+    <t>猫, mao, mao1</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>test key</t>
+  </si>
+  <si>
+    <t>test value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,11 +190,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -381,45 +478,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" ht="15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" ht="15">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15">
+      <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="24" spans="1:2" ht="15">
+      <c r="A24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
